--- a/Excel demonstrativo.xlsx
+++ b/Excel demonstrativo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2830B9BA-D8D4-40B0-B432-1955E8C092F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C427B58A-FEC7-4446-9900-A67E2B0F2C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,9 +187,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +506,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,22 +616,22 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="Q6" s="3"/>
@@ -667,11 +664,11 @@
         <v>4.4313637641589869</v>
       </c>
       <c r="C9" s="2">
-        <f>C2*(1+LOG10(3/1))</f>
+        <f t="shared" ref="B9:D10" si="0">C2*(1+LOG10(3/1))</f>
         <v>1.4771212547196624</v>
       </c>
       <c r="D9" s="2">
-        <f>D2*(1+LOG10(3/1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="2">
@@ -696,11 +693,11 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <f>C3*(1+LOG10(3/1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f>D3*(1+LOG10(3/1))</f>
+        <f t="shared" si="0"/>
         <v>1.4771212547196624</v>
       </c>
       <c r="E10" s="2">
